--- a/out/openAreaByGMU_acres.xlsx
+++ b/out/openAreaByGMU_acres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\gh\GmuArea\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8652FE8-77E3-49C5-B296-1006F6502751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962F060-F7AA-4BA7-A687-B059D2CC2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Native Lands Patented or Interim Conveyed</t>
   </si>
   <si>
-    <t xml:space="preserve">   Private, National Park, and Native Lands only includes those additional restricted areas outside of State Closed Areas.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -78,8 +75,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">.  All values are acres.  Open Hunting Land is defined as non-marine areas outside of State Closed to Hunting Areas, and excluding Private, National Park and Native lands.            </t>
+      <t xml:space="preserve">.  All values are acres.  Open Hunting Land is defined as non-marine areas outside of State Closed to Hunting Areas,             </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   excluding Private, National Park and Native Lands.  Private, National Park, and Native Lands only include those additional restricted areas outside of State Closed Areas.</t>
   </si>
 </sst>
 </file>
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -619,6 +619,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,12 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -991,9 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1012,129 +1010,129 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>14518374.4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>2737548.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>11780819.199999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>78355.199999999997</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>7731.2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>80755.199999999997</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>2037939.2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>50208</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>2254988.7999999998</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>9525830.4000000004</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>80.86</v>
       </c>
     </row>
@@ -1142,37 +1140,37 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>4187475.2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>1877286.4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>2310188.7999999998</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>620.79999999999995</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>389996.79999999999</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>21068.799999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>411686.40000000002</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>1898502.4</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>82.18</v>
       </c>
     </row>
@@ -1180,37 +1178,37 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>3543667.2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>1652249.6000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>1891417.6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>32358.400000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>326.39999999999998</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>57286.400000000001</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>7948.8</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="4">
         <v>97913.600000000006</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="4">
         <v>1793504</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
         <v>94.82</v>
       </c>
     </row>
@@ -1218,37 +1216,37 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>6217593.5999999996</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>2516051.2000000002</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>3701542.4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>93657.600000000006</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>2732.8</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>82611.199999999997</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>6.4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>6822.4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="4">
         <v>185824</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>3515718.4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <v>94.98</v>
       </c>
     </row>
@@ -1256,37 +1254,37 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>4563712</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>709907.2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>3853804.8</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>1753.6</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>92582.399999999994</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>2379385.6</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>729.6</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4">
         <v>2474444.7999999998</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>1379360</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <v>35.79</v>
       </c>
     </row>
@@ -1294,37 +1292,37 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>10059782.4</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>3484928</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>6574860.7999999998</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>569.6</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>359462.40000000002</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>462656</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>13785.6</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="4">
         <v>836467.19999999995</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>5738387.2000000002</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>87.28</v>
       </c>
     </row>
@@ -1332,37 +1330,37 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>2889446.4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>675660.80000000005</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>2213785.6000000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>53670.400000000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>160</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>67814.399999999994</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>590854.40000000002</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>9401.6</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="4">
         <v>721900.8</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>1491884.8</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>67.39</v>
       </c>
     </row>
@@ -1370,37 +1368,37 @@
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>6008915.2000000002</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>2809120</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>3199795.2000000002</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>7699.2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>717068.80000000005</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>16102.4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <v>740870.4</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <v>2458924.7999999998</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <v>76.849999999999994</v>
       </c>
     </row>
@@ -1408,37 +1406,37 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>30144806.399999999</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>7880396.7999999998</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>22264409.600000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>301497.59999999998</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <v>54860.800000000003</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>2564979.2000000002</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>6292339.2000000002</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>15571.2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4">
         <v>9229248</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <v>13035161.6</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <v>58.55</v>
       </c>
     </row>
@@ -1446,37 +1444,37 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>11148608</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>7154790.4000000004</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>3993817.6</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>1920</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>670809.59999999998</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>1459.2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>674188.80000000005</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>3319628.8</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>83.12</v>
       </c>
     </row>
@@ -1484,37 +1482,37 @@
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>7917446.4000000004</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
         <v>7917446.4000000004</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>2662.4</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>673497.59999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>6788979.2000000002</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>13344</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="4">
         <v>7478483.2000000002</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <v>438963.20000000001</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>5.54</v>
       </c>
     </row>
@@ -1522,37 +1520,37 @@
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>6392857.5999999996</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>6392857.5999999996</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>15852.8</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>1116262.3999999999</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>3041510.4</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>17715.2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="4">
         <v>4191334.3999999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <v>2201523.2000000002</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>34.44</v>
       </c>
     </row>
@@ -1560,37 +1558,37 @@
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>14962099.199999999</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
         <v>14962099.199999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>41126.400000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>24992</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>1155219.2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>924326.40000000002</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>108108.8</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="4">
         <v>2253779.2000000002</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <v>12708326.4</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>84.94</v>
       </c>
     </row>
@@ -1598,37 +1596,37 @@
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>4474720</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>227008</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>4247712</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>2073.6</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>151212.79999999999</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>370387.20000000001</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="4">
         <v>523673.59999999998</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="4">
         <v>3724038.4</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>87.67</v>
       </c>
     </row>
@@ -1636,37 +1634,37 @@
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>4656256</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>1458764.8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>3197491.2000000002</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>3385.6</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <v>12486.4</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>416851.20000000001</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>5132.8</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>226681.60000000001</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="4">
         <v>664531.19999999995</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="4">
         <v>2532960</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <v>79.22</v>
       </c>
     </row>
@@ -1674,37 +1672,37 @@
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>8295321.5999999996</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>476332.79999999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>7818988.7999999998</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>2438.4</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>276185.59999999998</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>1820128</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>89836.800000000003</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="4">
         <v>2188588.7999999998</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="4">
         <v>5630406.4000000004</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>72.010000000000005</v>
       </c>
     </row>
@@ -1712,37 +1710,37 @@
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>13023398.4</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>1024300.8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>11999097.6</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>974803.2</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>66771.199999999997</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>1212121.6000000001</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>383609.59999999998</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>8915.2000000000007</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="4">
         <v>2646220.7999999998</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <v>9352876.8000000007</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <v>77.95</v>
       </c>
     </row>
@@ -1750,37 +1748,37 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>29090566.399999999</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>3145798.4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>25944768</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>331168</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>5307929.5999999996</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>8339.2000000000007</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <v>5647436.7999999998</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <v>20297331.199999999</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>78.23</v>
       </c>
     </row>
@@ -1788,37 +1786,37 @@
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>23349932.800000001</v>
       </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
         <v>23349932.800000001</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>1394860.8</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>19993.599999999999</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>1755596.8</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>1057075.2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>33881.599999999999</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="4">
         <v>4261408</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <v>19088524.800000001</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="4">
         <v>81.75</v>
       </c>
     </row>
@@ -1826,37 +1824,37 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>32209164.800000001</v>
       </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
         <v>32209164.800000001</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>9280</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="4">
         <v>45446.400000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <v>2503193.6000000001</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>4848160</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>469344</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="4">
         <v>7875424</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="4">
         <v>24333740.800000001</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="4">
         <v>75.55</v>
       </c>
     </row>
@@ -1864,37 +1862,37 @@
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>28078553.600000001</v>
       </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
         <v>28078553.600000001</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <v>80992</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>2973152</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>9196.7999999999993</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="4">
         <v>3063347.2000000002</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="4">
         <v>25015206.399999999</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="4">
         <v>89.09</v>
       </c>
     </row>
@@ -1902,37 +1900,37 @@
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>20159686.399999999</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>3985580.8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>16174105.6</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>86144</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="4">
         <v>3779200</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>1909075.2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <v>15238.4</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="4">
         <v>5789651.2000000002</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="4">
         <v>10384448</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="4">
         <v>64.2</v>
       </c>
     </row>
@@ -1940,37 +1938,37 @@
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>30143558.399999999</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>2368390.4</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>27775168</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
         <v>153548.79999999999</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <v>2536825.6</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="4">
         <v>11448883.199999999</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>7200</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="4">
         <v>14146464</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="4">
         <v>13628704</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="4">
         <v>49.07</v>
       </c>
     </row>
@@ -1978,37 +1976,37 @@
       <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>16684416</v>
       </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
         <v>16684416</v>
       </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <v>25945.599999999999</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="4">
         <v>1701580.8</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <v>3627859.2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <v>2304</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="4">
         <v>5357689.5999999996</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="4">
         <v>11326726.4</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="4">
         <v>67.89</v>
       </c>
     </row>
@@ -2016,37 +2014,37 @@
       <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>34060992</v>
       </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>34060992</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
         <v>56531.199999999997</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="4">
         <v>4984544</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="4">
         <v>746688</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>27129.599999999999</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="4">
         <v>5814892.7999999998</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="4">
         <v>28246099.199999999</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="4">
         <v>82.93</v>
       </c>
     </row>
@@ -2054,47 +2052,42 @@
       <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="5">
         <v>53465606.399999999</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>2950566.4</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <v>50515040</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <v>279520</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>37913.599999999999</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="5">
         <v>4384339.2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="5">
         <v>2523104</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="5">
         <v>985.6</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="5">
         <v>7225856</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="5">
         <v>43289184</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="5">
         <v>85.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -2102,6 +2095,11 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/out/openAreaByGMU_acres.xlsx
+++ b/out/openAreaByGMU_acres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\gh\GmuArea\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962F060-F7AA-4BA7-A687-B059D2CC2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF5473-18CF-46F9-8B8F-08239116E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-120" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openAreaByGMU_acres" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -610,7 +611,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,6 +634,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1102,34 +1109,34 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>14518374.4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>2737548.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>11780819.199999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>78355.199999999997</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="9">
         <v>7731.2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="9">
         <v>80755.199999999997</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="9">
         <v>2037939.2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="9">
         <v>50208</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="9">
         <v>2254988.7999999998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="9">
         <v>9525830.4000000004</v>
       </c>
       <c r="L8" s="4">
@@ -1140,34 +1147,34 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>4187475.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <v>1877286.4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>2310188.7999999998</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <v>620.79999999999995</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="9">
         <v>389996.79999999999</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>21068.799999999999</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="9">
         <v>411686.40000000002</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="9">
         <v>1898502.4</v>
       </c>
       <c r="L9" s="4">
@@ -1178,34 +1185,34 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>3543667.2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="9">
         <v>1652249.6000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>1891417.6</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="9">
         <v>32358.400000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
         <v>326.39999999999998</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="9">
         <v>57286.400000000001</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>7948.8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="9">
         <v>97913.600000000006</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="9">
         <v>1793504</v>
       </c>
       <c r="L10" s="4">
@@ -1216,34 +1223,34 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>6217593.5999999996</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <v>2516051.2000000002</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>3701542.4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="9">
         <v>93657.600000000006</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
         <v>2732.8</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="9">
         <v>82611.199999999997</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="9">
         <v>6.4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="9">
         <v>6822.4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="9">
         <v>185824</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="9">
         <v>3515718.4</v>
       </c>
       <c r="L11" s="4">
@@ -1254,34 +1261,34 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>4563712</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="9">
         <v>709907.2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>3853804.8</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <v>1753.6</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="9">
         <v>92582.399999999994</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="9">
         <v>2379385.6</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="9">
         <v>729.6</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="9">
         <v>2474444.7999999998</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="9">
         <v>1379360</v>
       </c>
       <c r="L12" s="4">
@@ -1292,34 +1299,34 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>10059782.4</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="9">
         <v>3484928</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>6574860.7999999998</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
         <v>569.6</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="9">
         <v>359462.40000000002</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="9">
         <v>462656</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="9">
         <v>13785.6</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="9">
         <v>836467.19999999995</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="9">
         <v>5738387.2000000002</v>
       </c>
       <c r="L13" s="4">
@@ -1330,34 +1337,34 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>2889446.4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>675660.80000000005</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
         <v>2213785.6000000001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="9">
         <v>53670.400000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="9">
         <v>160</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="9">
         <v>67814.399999999994</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="9">
         <v>590854.40000000002</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="9">
         <v>9401.6</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="9">
         <v>721900.8</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="9">
         <v>1491884.8</v>
       </c>
       <c r="L14" s="4">
@@ -1368,34 +1375,34 @@
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>6008915.2000000002</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <v>2809120</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="9">
         <v>3199795.2000000002</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
         <v>7699.2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="9">
         <v>717068.80000000005</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
         <v>16102.4</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="9">
         <v>740870.4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="9">
         <v>2458924.7999999998</v>
       </c>
       <c r="L15" s="4">
@@ -1406,34 +1413,34 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>30144806.399999999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <v>7880396.7999999998</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
         <v>22264409.600000001</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="9">
         <v>301497.59999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="9">
         <v>54860.800000000003</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9">
         <v>2564979.2000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="9">
         <v>6292339.2000000002</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="9">
         <v>15571.2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="9">
         <v>9229248</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="9">
         <v>13035161.6</v>
       </c>
       <c r="L16" s="4">
@@ -1444,34 +1451,34 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="9">
         <v>11148608</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="9">
         <v>7154790.4000000004</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
         <v>3993817.6</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
         <v>1920</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="9">
         <v>670809.59999999998</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <v>1459.2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="9">
         <v>674188.80000000005</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="9">
         <v>3319628.8</v>
       </c>
       <c r="L17" s="4">
@@ -1482,34 +1489,34 @@
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>7917446.4000000004</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
         <v>7917446.4000000004</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
         <v>2662.4</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="9">
         <v>673497.59999999998</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="9">
         <v>6788979.2000000002</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="9">
         <v>13344</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="9">
         <v>7478483.2000000002</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="9">
         <v>438963.20000000001</v>
       </c>
       <c r="L18" s="4">
@@ -1520,34 +1527,34 @@
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="9">
         <v>6392857.5999999996</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
         <v>6392857.5999999996</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
         <v>15852.8</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="9">
         <v>1116262.3999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="9">
         <v>3041510.4</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="9">
         <v>17715.2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="9">
         <v>4191334.3999999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="9">
         <v>2201523.2000000002</v>
       </c>
       <c r="L19" s="4">
@@ -1558,34 +1565,34 @@
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>14962099.199999999</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
         <v>14962099.199999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="9">
         <v>41126.400000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="9">
         <v>24992</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="9">
         <v>1155219.2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="9">
         <v>924326.40000000002</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="9">
         <v>108108.8</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="9">
         <v>2253779.2000000002</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="9">
         <v>12708326.4</v>
       </c>
       <c r="L20" s="4">
@@ -1596,34 +1603,34 @@
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="9">
         <v>4474720</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="9">
         <v>227008</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <v>4247712</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
         <v>2073.6</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="9">
         <v>151212.79999999999</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>370387.20000000001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="9">
         <v>523673.59999999998</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="9">
         <v>3724038.4</v>
       </c>
       <c r="L21" s="4">
@@ -1634,34 +1641,34 @@
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>4656256</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="9">
         <v>1458764.8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
         <v>3197491.2000000002</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="9">
         <v>3385.6</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="9">
         <v>12486.4</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="9">
         <v>416851.20000000001</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="9">
         <v>5132.8</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="9">
         <v>226681.60000000001</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="9">
         <v>664531.19999999995</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="9">
         <v>2532960</v>
       </c>
       <c r="L22" s="4">
@@ -1672,34 +1679,34 @@
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="9">
         <v>8295321.5999999996</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="9">
         <v>476332.79999999999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>7818988.7999999998</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <v>2438.4</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="9">
         <v>276185.59999999998</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="9">
         <v>1820128</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="9">
         <v>89836.800000000003</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="9">
         <v>2188588.7999999998</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="9">
         <v>5630406.4000000004</v>
       </c>
       <c r="L23" s="4">
@@ -1710,34 +1717,34 @@
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="9">
         <v>13023398.4</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="9">
         <v>1024300.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>11999097.6</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="9">
         <v>974803.2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="9">
         <v>66771.199999999997</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="9">
         <v>1212121.6000000001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="9">
         <v>383609.59999999998</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="9">
         <v>8915.2000000000007</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="9">
         <v>2646220.7999999998</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="9">
         <v>9352876.8000000007</v>
       </c>
       <c r="L24" s="4">
@@ -1748,34 +1755,34 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="9">
         <v>29090566.399999999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="9">
         <v>3145798.4</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="9">
         <v>25944768</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
         <v>331168</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="9">
         <v>5307929.5999999996</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
         <v>8339.2000000000007</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="9">
         <v>5647436.7999999998</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="9">
         <v>20297331.199999999</v>
       </c>
       <c r="L25" s="4">
@@ -1786,34 +1793,34 @@
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="9">
         <v>23349932.800000001</v>
       </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
         <v>23349932.800000001</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="9">
         <v>1394860.8</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="9">
         <v>19993.599999999999</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="9">
         <v>1755596.8</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="9">
         <v>1057075.2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="9">
         <v>33881.599999999999</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="9">
         <v>4261408</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="9">
         <v>19088524.800000001</v>
       </c>
       <c r="L26" s="4">
@@ -1824,34 +1831,34 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="9">
         <v>32209164.800000001</v>
       </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
         <v>32209164.800000001</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="9">
         <v>9280</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="9">
         <v>45446.400000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="9">
         <v>2503193.6000000001</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="9">
         <v>4848160</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="9">
         <v>469344</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="9">
         <v>7875424</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="9">
         <v>24333740.800000001</v>
       </c>
       <c r="L27" s="4">
@@ -1862,34 +1869,34 @@
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="9">
         <v>28078553.600000001</v>
       </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
         <v>28078553.600000001</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
         <v>80992</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="9">
         <v>2973152</v>
       </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
         <v>9196.7999999999993</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="9">
         <v>3063347.2000000002</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="9">
         <v>25015206.399999999</v>
       </c>
       <c r="L28" s="4">
@@ -1900,34 +1907,34 @@
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="9">
         <v>20159686.399999999</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="9">
         <v>3985580.8</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="9">
         <v>16174105.6</v>
       </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
         <v>86144</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="9">
         <v>3779200</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="9">
         <v>1909075.2</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="9">
         <v>15238.4</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="9">
         <v>5789651.2000000002</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="9">
         <v>10384448</v>
       </c>
       <c r="L29" s="4">
@@ -1938,34 +1945,34 @@
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="9">
         <v>30143558.399999999</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="9">
         <v>2368390.4</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="9">
         <v>27775168</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
         <v>153548.79999999999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="9">
         <v>2536825.6</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="9">
         <v>11448883.199999999</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="9">
         <v>7200</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="9">
         <v>14146464</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="9">
         <v>13628704</v>
       </c>
       <c r="L30" s="4">
@@ -1976,34 +1983,34 @@
       <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="9">
         <v>16684416</v>
       </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
         <v>16684416</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
         <v>25945.599999999999</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="9">
         <v>1701580.8</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="9">
         <v>3627859.2</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="9">
         <v>2304</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="9">
         <v>5357689.5999999996</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="9">
         <v>11326726.4</v>
       </c>
       <c r="L31" s="4">
@@ -2014,34 +2021,34 @@
       <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="9">
         <v>34060992</v>
       </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
         <v>34060992</v>
       </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
         <v>56531.199999999997</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="9">
         <v>4984544</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="9">
         <v>746688</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="9">
         <v>27129.599999999999</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="9">
         <v>5814892.7999999998</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="9">
         <v>28246099.199999999</v>
       </c>
       <c r="L32" s="4">
@@ -2052,34 +2059,34 @@
       <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="10">
         <v>53465606.399999999</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="10">
         <v>2950566.4</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="10">
         <v>50515040</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="10">
         <v>279520</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="10">
         <v>37913.599999999999</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="10">
         <v>4384339.2</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="10">
         <v>2523104</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="10">
         <v>985.6</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="10">
         <v>7225856</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="10">
         <v>43289184</v>
       </c>
       <c r="L33" s="5">
@@ -2088,6 +2095,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -2095,11 +2107,6 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
